--- a/Ass2/plots.xlsx
+++ b/Ass2/plots.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>8 cpus</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>1000,,,</t>
+  </si>
+  <si>
+    <t>speedup/cpus</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>run time</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Run time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -920,11 +985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495086656"/>
-        <c:axId val="495087744"/>
+        <c:axId val="-1095847424"/>
+        <c:axId val="-1095856128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="495086656"/>
+        <c:axId val="-1095847424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +1032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495087744"/>
+        <c:crossAx val="-1095856128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -975,7 +1040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495087744"/>
+        <c:axId val="-1095856128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,49 +1091,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495086656"/>
+        <c:crossAx val="-1095847424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1077,6 +1103,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1399,11 +1457,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="499475984"/>
-        <c:axId val="499476528"/>
+        <c:axId val="-1095842528"/>
+        <c:axId val="-1095853952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="499475984"/>
+        <c:axId val="-1095842528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499476528"/>
+        <c:crossAx val="-1095853952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1454,7 +1512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499476528"/>
+        <c:axId val="-1095853952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,49 +1563,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499475984"/>
+        <c:crossAx val="-1095842528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2718,13 +2737,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2753,8 +2772,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3039,20 +3058,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
@@ -3066,7 +3085,7 @@
         <v>13.963518858</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -3080,7 +3099,7 @@
         <v>53.152133941700001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1500</v>
       </c>
@@ -3094,12 +3113,12 @@
         <v>133.72696304300001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v>10.499978065500001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -3127,7 +3146,7 @@
         <v>27.756335973700001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1500</v>
       </c>
@@ -3140,8 +3159,11 @@
       <c r="D8">
         <v>71.440014839200003</v>
       </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3158,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500</v>
       </c>
@@ -3191,7 +3213,7 @@
         <v>10.152779658633333</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -3224,7 +3246,7 @@
         <v>20.992196957266668</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1500</v>
       </c>
@@ -3253,12 +3275,12 @@
         <v>45.696832021100001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3271,8 +3293,14 @@
       <c r="D14">
         <v>20.252132892599999</v>
       </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +3325,20 @@
       <c r="J15" t="s">
         <v>2</v>
       </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>85.26</v>
       </c>
@@ -3318,29 +3358,61 @@
         <f t="shared" si="0"/>
         <v>8.397700222667579</v>
       </c>
+      <c r="K16">
+        <f>G16/K$15</f>
+        <v>1.0716688121174507</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:N18" si="1">H16/L$15</f>
+        <v>0.76865035233573864</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.50443974934625779</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0.26242813195836184</v>
+      </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>307.25</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:J18" si="1">$F17/G11</f>
+        <f t="shared" ref="G17:J18" si="2">$F17/G11</f>
         <v>3.0158444762452694</v>
       </c>
       <c r="H17">
+        <f t="shared" si="2"/>
+        <v>5.7624122079030338</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>11.119171106446258</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>14.636390875402977</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K18" si="3">G17/K$15</f>
+        <v>0.75396111906131735</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
-        <v>5.7624122079030338</v>
-      </c>
-      <c r="I17">
+        <v>0.72030152598787922</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
-        <v>11.119171106446258</v>
-      </c>
-      <c r="J17">
+        <v>0.69494819415289111</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="1"/>
-        <v>14.636390875402977</v>
+        <v>0.45738721485634304</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>661.02</v>
       </c>
@@ -3348,16 +3420,32 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <f t="shared" si="2"/>
+        <v>4.9647485579936435</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>9.2430426953779659</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>14.465335358363166</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
-        <v>4.9647485579936435</v>
-      </c>
-      <c r="I18">
+        <v>0.62059356974920543</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="1"/>
-        <v>9.2430426953779659</v>
-      </c>
-      <c r="J18">
+        <v>0.57769016846112287</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="1"/>
-        <v>14.465335358363166</v>
+        <v>0.45204172994884895</v>
       </c>
     </row>
   </sheetData>

--- a/Ass2/plots.xlsx
+++ b/Ass2/plots.xlsx
@@ -679,11 +679,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>result!$G$9</c:f>
+              <c:f>result!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 cpus</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,34 +713,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>result!$F$10:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+            <c:strRef>
+              <c:f>result!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>4 cpus</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>8 cpus</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16 cpus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32 cpus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$G$10:$G$12</c:f>
+              <c:f>result!$G$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>19.889540274933335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.87859567033333</c:v>
+                  <c:v>13.865211884200001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.563699642833335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.152779658633333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,11 +760,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>result!$H$9</c:f>
+              <c:f>result!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 cpus</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -786,37 +794,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>result!$F$10:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+            <c:strRef>
+              <c:f>result!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>4 cpus</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>8 cpus</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16 cpus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32 cpus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$H$10:$H$12</c:f>
+              <c:f>result!$G$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.865211884200001</c:v>
+                  <c:v>101.87859567033333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>53.319684346533336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.14269439400002</c:v>
+                  <c:v>27.632455428433335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.992196957266668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,11 +841,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>result!$I$9</c:f>
+              <c:f>result!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 cpus</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -862,112 +875,38 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>result!$F$10:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+            <c:strRef>
+              <c:f>result!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>4 cpus</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>8 cpus</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16 cpus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32 cpus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$I$10:$I$12</c:f>
+              <c:f>result!$G$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.563699642833335</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>27.632455428433335</c:v>
+                  <c:v>133.14269439400002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>71.515411297466656</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result!$J$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32 cpus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>result!$F$10:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>result!$J$10:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.152779658633333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.992196957266668</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45.696832021100001</c:v>
                 </c:pt>
               </c:numCache>
@@ -985,11 +924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1095847424"/>
-        <c:axId val="-1095856128"/>
+        <c:axId val="1137276160"/>
+        <c:axId val="1137284320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1095847424"/>
+        <c:axId val="1137276160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1095856128"/>
+        <c:crossAx val="1137284320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1040,7 +979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1095856128"/>
+        <c:axId val="1137284320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1095847424"/>
+        <c:crossAx val="1137276160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1457,11 +1396,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1095842528"/>
-        <c:axId val="-1095853952"/>
+        <c:axId val="1137277792"/>
+        <c:axId val="1137276704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1095842528"/>
+        <c:axId val="1137277792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1095853952"/>
+        <c:crossAx val="1137276704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1512,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1095853952"/>
+        <c:axId val="1137276704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1095842528"/>
+        <c:crossAx val="1137277792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3061,7 +3000,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
